--- a/documentation/List of Jobs for Testing.xlsx
+++ b/documentation/List of Jobs for Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ese2018-team3\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997B8D06-A1B3-4B27-A340-2C4F3EB42ADC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1710F118-C229-442F-84BB-574C61F413CE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11520" xr2:uid="{20EC7DFB-73BB-46B9-923E-5DE04EC36923}"/>
   </bookViews>
@@ -241,14 +241,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EE912E-7BAF-44A6-835D-DFFB2B583ADC}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,28 +586,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
@@ -652,7 +653,7 @@
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D4" t="s">
@@ -680,7 +681,7 @@
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D6" t="s">

--- a/documentation/List of Jobs for Testing.xlsx
+++ b/documentation/List of Jobs for Testing.xlsx
@@ -5,33 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ese2018-team3\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ESE\ese2018-team3\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1710F118-C229-442F-84BB-574C61F413CE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4C54CE-6DF9-4156-A2A6-BAAE3AEC0A3A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11520" xr2:uid="{20EC7DFB-73BB-46B9-923E-5DE04EC36923}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>Titel</t>
   </si>
@@ -198,6 +192,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Bachelors Degree</t>
   </si>
 </sst>
 </file>
@@ -246,13 +243,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -268,7 +265,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -566,48 +563,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EE912E-7BAF-44A6-835D-DFFB2B583ADC}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
@@ -632,7 +629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -645,8 +642,11 @@
       <c r="D3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -659,8 +659,11 @@
       <c r="D4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -673,8 +676,11 @@
       <c r="D5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -687,8 +693,11 @@
       <c r="D6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -701,8 +710,11 @@
       <c r="D7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -715,8 +727,11 @@
       <c r="D8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -724,7 +739,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -732,7 +747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -743,7 +758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -751,7 +766,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -762,7 +777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -773,7 +788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -781,7 +796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -789,7 +804,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -797,7 +812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -805,7 +820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -813,7 +828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -821,7 +836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -829,7 +844,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
